--- a/biology/Botanique/Hydrocotyloideae/Hydrocotyloideae.xlsx
+++ b/biology/Botanique/Hydrocotyloideae/Hydrocotyloideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hydrocotyloideae sont une sous-famille de plantes à fleurs de la famille des Apiaceae selon Catalogue of Life                                   (17 mai 2021)[1] ou des Araliaceae selon The Taxonomicon  (17 mai 2021)[2] et l'INPN      (17 mai 2021)[3]. Elle comprend deux genres et 252 espèces selon Catalogue of Life                                   (17 mai 2021)[1]. Hydrocotyle est le genre type.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hydrocotyloideae sont une sous-famille de plantes à fleurs de la famille des Apiaceae selon Catalogue of Life                                   (17 mai 2021) ou des Araliaceae selon The Taxonomicon  (17 mai 2021) et l'INPN      (17 mai 2021). Elle comprend deux genres et 252 espèces selon Catalogue of Life                                   (17 mai 2021). Hydrocotyle est le genre type.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 mai 2021)[1] et l'INPN      (17 mai 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 mai 2021) et l'INPN      (17 mai 2021) :
 Hydrocotyle L., 1753
 Trachymene Rudge, 1811
-Selon The Taxonomicon  (17 mai 2021)[2] :
+Selon The Taxonomicon  (17 mai 2021) :
 Hydrocotyle L., 1753
 Neosciadium Domin, 1908
 Trachymene Rudge, 1811</t>
